--- a/gd/标准化文档/资源存放规则与提交流程.xlsx
+++ b/gd/标准化文档/资源存放规则与提交流程.xlsx
@@ -4,14 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="资源存放规则" sheetId="1" r:id="rId1"/>
     <sheet name="提交流程" sheetId="2" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="144525"/>
 </workbook>
 </file>
 
@@ -2899,8 +2898,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C69" sqref="C69"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="O35" sqref="O35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -2981,8 +2980,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:C68"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="M33" sqref="M33"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="M54" sqref="M54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -3033,17 +3032,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
-  <sheetData/>
-  <phoneticPr fontId="2" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>